--- a/biology/Médecine/Nerf_fibulaire_commun/Nerf_fibulaire_commun.xlsx
+++ b/biology/Médecine/Nerf_fibulaire_commun/Nerf_fibulaire_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf fibulaire commun (ou nerf péronier commun, ou nerf sciatique poplité externe) est un nerf de la jambe. Il est l'une des deux branches terminales du nerf ischiatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf fibulaire commun, donne 4 collatérales (nerf du muscle articulaire du genou, nerf saphène fibulaire, nerf cutané fibulaire, nerf supérieur du muscle tibial antérieur) et deux branches terminales. 
 Il naît au sommet de la fosse poplitée entre le semi-membraneux médialement et le biceps fémoral latéralement. C'est une des deux branches terminales du nerf sciatique avec le nerf tibial.
@@ -544,7 +558,9 @@
           <t>Innervation et branches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se divise en deux branches principales :
 le nerf fibulaire profond anciennement nerf tibial antérieur. Innerve la loge antérieur de la jambe ;.
